--- a/StructureDefinition-cdm-observation.xlsx
+++ b/StructureDefinition-cdm-observation.xlsx
@@ -963,8 +963,8 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+    <t>Quantity {http://ibm.com/fhir/cdm/StructureDefinition/quantity-with-conversion}
+stringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual result</t>

--- a/StructureDefinition-cdm-observation.xlsx
+++ b/StructureDefinition-cdm-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-observation.xlsx
+++ b/StructureDefinition-cdm-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-observation.xlsx
+++ b/StructureDefinition-cdm-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-observation.xlsx
+++ b/StructureDefinition-cdm-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-observation.xlsx
+++ b/StructureDefinition-cdm-observation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>IBM Health Data Connect Common Data Model definition of what fields we currently define for an observation</t>
+    <t>Health Data Connect Common Data Model definition of what fields we currently define for an observation</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-cdm-observation.xlsx
+++ b/StructureDefinition-cdm-observation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-observation.xlsx
+++ b/StructureDefinition-cdm-observation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1900,39 +1900,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-cdm-observation.xlsx
+++ b/StructureDefinition-cdm-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-observation.xlsx
+++ b/StructureDefinition-cdm-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-observation.xlsx
+++ b/StructureDefinition-cdm-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-observation.xlsx
+++ b/StructureDefinition-cdm-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-observation.xlsx
+++ b/StructureDefinition-cdm-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-observation.xlsx
+++ b/StructureDefinition-cdm-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-observation.xlsx
+++ b/StructureDefinition-cdm-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-observation.xlsx
+++ b/StructureDefinition-cdm-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-observation.xlsx
+++ b/StructureDefinition-cdm-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-observation.xlsx
+++ b/StructureDefinition-cdm-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-observation.xlsx
+++ b/StructureDefinition-cdm-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-observation.xlsx
+++ b/StructureDefinition-cdm-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-observation.xlsx
+++ b/StructureDefinition-cdm-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-observation.xlsx
+++ b/StructureDefinition-cdm-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-observation.xlsx
+++ b/StructureDefinition-cdm-observation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="506">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -290,227 +290,231 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Observation.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+</t>
+  </si>
+  <si>
+    <t>Metadata about a resource</t>
+  </si>
+  <si>
+    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Observation.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Observation.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Observation.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>Observation.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:type}
+</t>
+  </si>
+  <si>
+    <t>Slice based on entry system</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Observation.identifier.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Observation.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
-</t>
-  </si>
-  <si>
-    <t>Metadata about a resource</t>
-  </si>
-  <si>
-    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Observation.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Observation.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Observation.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Observation.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Observation.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:type}
-</t>
-  </si>
-  <si>
-    <t>Slice based on entry system</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Observation.identifier.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3262,13 +3266,13 @@
         <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3319,7 +3323,7 @@
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3343,7 +3347,7 @@
         <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>79</v>
@@ -3354,7 +3358,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3383,7 +3387,7 @@
         <v>137</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
         <v>139</v>
@@ -3424,10 +3428,10 @@
         <v>79</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>79</v>
@@ -3436,7 +3440,7 @@
         <v>154</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
@@ -3460,7 +3464,7 @@
         <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>79</v>
@@ -3471,7 +3475,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3497,16 +3501,16 @@
         <v>111</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>79</v>
@@ -3531,13 +3535,13 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>79</v>
@@ -3555,7 +3559,7 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3579,7 +3583,7 @@
         <v>103</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>79</v>
@@ -3590,7 +3594,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3613,19 +3617,19 @@
         <v>90</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>79</v>
@@ -3650,11 +3654,11 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -3672,7 +3676,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3693,10 +3697,10 @@
         <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>79</v>
@@ -3707,7 +3711,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3733,16 +3737,16 @@
         <v>105</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>79</v>
@@ -3755,7 +3759,7 @@
         <v>79</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>79</v>
@@ -3791,7 +3795,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3812,10 +3816,10 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>79</v>
@@ -3826,7 +3830,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3849,16 +3853,16 @@
         <v>90</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3872,7 +3876,7 @@
         <v>79</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>79</v>
@@ -3908,7 +3912,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3929,10 +3933,10 @@
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -3943,7 +3947,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3966,13 +3970,13 @@
         <v>90</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4023,7 +4027,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4044,10 +4048,10 @@
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4058,7 +4062,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4081,16 +4085,16 @@
         <v>90</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4140,7 +4144,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4161,10 +4165,10 @@
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4178,7 +4182,7 @@
         <v>147</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>79</v>
@@ -4317,13 +4321,13 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4374,7 +4378,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4398,7 +4402,7 @@
         <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4409,7 +4413,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4438,7 +4442,7 @@
         <v>137</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>139</v>
@@ -4479,10 +4483,10 @@
         <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>79</v>
@@ -4491,7 +4495,7 @@
         <v>154</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4515,7 +4519,7 @@
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4526,7 +4530,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4552,16 +4556,16 @@
         <v>111</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4571,7 +4575,7 @@
         <v>79</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>79</v>
@@ -4586,13 +4590,13 @@
         <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>79</v>
@@ -4610,7 +4614,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4634,7 +4638,7 @@
         <v>103</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4645,7 +4649,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4668,19 +4672,19 @@
         <v>90</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -4690,7 +4694,7 @@
         <v>79</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>79</v>
@@ -4705,13 +4709,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -4729,7 +4733,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4750,10 +4754,10 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -4764,7 +4768,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4790,16 +4794,16 @@
         <v>105</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -4812,7 +4816,7 @@
         <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>79</v>
@@ -4848,7 +4852,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4869,10 +4873,10 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -4883,7 +4887,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4906,16 +4910,16 @@
         <v>90</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4929,7 +4933,7 @@
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>79</v>
@@ -4965,7 +4969,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4986,10 +4990,10 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -5000,7 +5004,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5023,13 +5027,13 @@
         <v>90</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5080,7 +5084,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5101,10 +5105,10 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5115,7 +5119,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5138,16 +5142,16 @@
         <v>90</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5197,7 +5201,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5218,10 +5222,10 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5232,11 +5236,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5255,17 +5259,17 @@
         <v>90</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5314,7 +5318,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5329,16 +5333,16 @@
         <v>102</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5349,11 +5353,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5372,16 +5376,16 @@
         <v>90</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5431,7 +5435,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5446,16 +5450,16 @@
         <v>102</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5466,7 +5470,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5492,16 +5496,16 @@
         <v>111</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5526,13 +5530,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5550,7 +5554,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>89</v>
@@ -5565,19 +5569,19 @@
         <v>102</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -5585,7 +5589,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5608,19 +5612,19 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5648,10 +5652,10 @@
         <v>115</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5669,7 +5673,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5693,10 +5697,10 @@
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -5704,11 +5708,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5727,19 +5731,19 @@
         <v>90</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5764,13 +5768,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -5788,7 +5792,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>89</v>
@@ -5803,27 +5807,27 @@
         <v>102</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5846,19 +5850,19 @@
         <v>90</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -5907,7 +5911,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5922,19 +5926,19 @@
         <v>102</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>79</v>
@@ -5942,7 +5946,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5965,16 +5969,16 @@
         <v>90</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6024,7 +6028,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6045,13 +6049,13 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
@@ -6059,11 +6063,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6082,19 +6086,19 @@
         <v>90</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6143,7 +6147,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6158,19 +6162,19 @@
         <v>102</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
@@ -6178,11 +6182,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6201,19 +6205,19 @@
         <v>90</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6262,7 +6266,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6277,19 +6281,19 @@
         <v>102</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6297,7 +6301,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6320,16 +6324,16 @@
         <v>90</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6379,7 +6383,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6400,13 +6404,13 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6414,7 +6418,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6437,17 +6441,17 @@
         <v>90</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6496,7 +6500,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6511,19 +6515,19 @@
         <v>102</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
@@ -6531,7 +6535,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6554,19 +6558,19 @@
         <v>90</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6615,7 +6619,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6624,7 +6628,7 @@
         <v>89</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>102</v>
@@ -6633,24 +6637,24 @@
         <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6673,19 +6677,19 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -6710,13 +6714,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6734,7 +6738,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6743,7 +6747,7 @@
         <v>89</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>102</v>
@@ -6758,7 +6762,7 @@
         <v>103</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6769,11 +6773,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6792,19 +6796,19 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -6829,13 +6833,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -6853,7 +6857,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6871,24 +6875,24 @@
         <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6911,19 +6915,19 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -6972,7 +6976,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6993,10 +6997,10 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7007,7 +7011,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7030,16 +7034,16 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7065,13 +7069,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7089,7 +7093,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7107,24 +7111,24 @@
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7147,19 +7151,19 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7184,13 +7188,13 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7208,7 +7212,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7229,10 +7233,10 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7243,7 +7247,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7266,16 +7270,16 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7325,7 +7329,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7343,24 +7347,24 @@
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7383,16 +7387,16 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7442,7 +7446,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7460,24 +7464,24 @@
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7500,19 +7504,19 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7561,7 +7565,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7573,7 +7577,7 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
@@ -7582,10 +7586,10 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -7596,7 +7600,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7619,13 +7623,13 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7676,7 +7680,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7700,7 +7704,7 @@
         <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7711,7 +7715,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7740,7 +7744,7 @@
         <v>137</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>139</v>
@@ -7793,7 +7797,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7817,7 +7821,7 @@
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -7828,11 +7832,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7854,10 +7858,10 @@
         <v>136</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>139</v>
@@ -7912,7 +7916,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7947,7 +7951,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7970,13 +7974,13 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8027,7 +8031,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8036,7 +8040,7 @@
         <v>89</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>102</v>
@@ -8048,10 +8052,10 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -8062,7 +8066,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8085,13 +8089,13 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8142,7 +8146,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8151,7 +8155,7 @@
         <v>89</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>102</v>
@@ -8163,10 +8167,10 @@
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8177,7 +8181,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8200,19 +8204,19 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8240,10 +8244,10 @@
         <v>115</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8261,7 +8265,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8279,13 +8283,13 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8296,7 +8300,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8319,19 +8323,19 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8356,13 +8360,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8380,7 +8384,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8398,13 +8402,13 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8415,7 +8419,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8438,17 +8442,17 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8497,7 +8501,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8521,7 +8525,7 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8532,7 +8536,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8555,13 +8559,13 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8612,7 +8616,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8633,10 +8637,10 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8647,7 +8651,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8670,16 +8674,16 @@
         <v>90</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8729,7 +8733,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8750,10 +8754,10 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8764,7 +8768,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8787,16 +8791,16 @@
         <v>90</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8846,7 +8850,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8867,10 +8871,10 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8881,7 +8885,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8904,19 +8908,19 @@
         <v>90</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -8965,7 +8969,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8986,10 +8990,10 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9000,7 +9004,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9023,13 +9027,13 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9080,7 +9084,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9104,7 +9108,7 @@
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9115,7 +9119,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9144,7 +9148,7 @@
         <v>137</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>139</v>
@@ -9197,7 +9201,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9221,7 +9225,7 @@
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9232,11 +9236,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9258,10 +9262,10 @@
         <v>136</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>139</v>
@@ -9316,7 +9320,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9351,7 +9355,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9374,19 +9378,19 @@
         <v>90</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9411,13 +9415,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9435,7 +9439,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>89</v>
@@ -9453,16 +9457,16 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>79</v>
@@ -9470,7 +9474,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9493,19 +9497,19 @@
         <v>90</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9554,7 +9558,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9572,24 +9576,24 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9612,19 +9616,19 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9649,13 +9653,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9673,7 +9677,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9682,7 +9686,7 @@
         <v>89</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>102</v>
@@ -9697,7 +9701,7 @@
         <v>103</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9708,11 +9712,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9731,19 +9735,19 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9768,13 +9772,13 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -9792,7 +9796,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9810,24 +9814,24 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9853,16 +9857,16 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -9911,7 +9915,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9932,10 +9936,10 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-cdm-observation.xlsx
+++ b/StructureDefinition-cdm-observation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="505">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/cdm-observation</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/cdm-observation</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Health Data Connect Common Data Model definition of what fields we currently define for an observation</t>
+    <t>LinuxForHealth Common Data Model definition of what fields we currently define for an observation</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -265,10 +265,6 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -309,7 +305,7 @@
     <t>Observation.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+    <t xml:space="preserve">Meta {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-meta}
 </t>
   </si>
   <si>
@@ -597,7 +593,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/identifier-type</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/identifier-type</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -712,7 +708,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://ibm.com/fhir/cdm/CodeSystem/identifier-type"/&gt;
+    &lt;system value="http://linuxforhealth.org/fhir/cdm/CodeSystem/identifier-type"/&gt;
     &lt;code value="SSRI"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1067,7 +1063,7 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Quantity {http://ibm.com/fhir/cdm/StructureDefinition/quantity-with-conversion}
+    <t>Quantity {http://linuxforhealth.org/fhir/cdm/StructureDefinition/quantity-with-conversion}
 stringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
@@ -1927,7 +1923,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.70703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -2167,19 +2163,19 @@
         <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>79</v>
@@ -2190,7 +2186,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2201,28 +2197,28 @@
         <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2272,13 +2268,13 @@
         <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>79</v>
@@ -2307,7 +2303,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2318,7 +2314,7 @@
         <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>79</v>
@@ -2330,13 +2326,13 @@
         <v>79</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2387,31 +2383,31 @@
         <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH4" t="s" s="2">
+      <c r="AI4" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AI4" t="s" s="2">
+      <c r="AJ4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM4" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM4" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>79</v>
@@ -2422,7 +2418,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2433,28 +2429,28 @@
         <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2504,19 +2500,19 @@
         <v>79</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>79</v>
@@ -2539,7 +2535,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2550,7 +2546,7 @@
         <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>79</v>
@@ -2562,16 +2558,16 @@
         <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2597,43 +2593,43 @@
         <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>118</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>79</v>
@@ -2656,18 +2652,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>79</v>
@@ -2679,16 +2675,16 @@
         <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2738,31 +2734,31 @@
         <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>79</v>
@@ -2773,11 +2769,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2796,16 +2792,16 @@
         <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2855,7 +2851,7 @@
         <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>77</v>
@@ -2879,7 +2875,7 @@
         <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>79</v>
@@ -2890,11 +2886,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2913,16 +2909,16 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2972,7 +2968,7 @@
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
@@ -2984,7 +2980,7 @@
         <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>79</v>
@@ -2996,7 +2992,7 @@
         <v>79</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>79</v>
@@ -3007,11 +3003,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3024,25 +3020,25 @@
         <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>79</v>
@@ -3091,7 +3087,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -3103,7 +3099,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>79</v>
@@ -3115,7 +3111,7 @@
         <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>79</v>
@@ -3126,7 +3122,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3134,7 +3130,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>78</v>
@@ -3146,20 +3142,20 @@
         <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>79</v>
@@ -3196,19 +3192,19 @@
         <v>79</v>
       </c>
       <c r="AA11" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AB11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AB11" t="s" s="2">
+      <c r="AC11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="AC11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>154</v>
-      </c>
       <c r="AE11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3220,22 +3216,22 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AK11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>79</v>
@@ -3243,7 +3239,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3254,7 +3250,7 @@
         <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>79</v>
@@ -3266,13 +3262,13 @@
         <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3323,31 +3319,31 @@
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>79</v>
@@ -3358,11 +3354,11 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3381,16 +3377,16 @@
         <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>137</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3428,19 +3424,19 @@
         <v>79</v>
       </c>
       <c r="AA13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AB13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AB13" t="s" s="2">
+      <c r="AC13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AE13" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
@@ -3452,7 +3448,7 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>79</v>
@@ -3464,7 +3460,7 @@
         <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>79</v>
@@ -3475,7 +3471,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3486,31 +3482,31 @@
         <v>77</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I14" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>79</v>
@@ -3535,55 +3531,55 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE14" t="s" s="2">
+      <c r="AF14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>79</v>
@@ -3594,7 +3590,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3605,31 +3601,31 @@
         <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>79</v>
@@ -3654,53 +3650,53 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE15" t="s" s="2">
+      <c r="AF15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AF15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="AM15" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>79</v>
@@ -3711,7 +3707,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3719,34 +3715,34 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F16" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>79</v>
@@ -3759,67 +3755,67 @@
         <v>79</v>
       </c>
       <c r="S16" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="T16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE16" t="s" s="2">
+      <c r="AF16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AF16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>79</v>
@@ -3830,7 +3826,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3838,31 +3834,31 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3876,67 +3872,67 @@
         <v>79</v>
       </c>
       <c r="S17" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="T17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE17" t="s" s="2">
+      <c r="AF17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AF17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -3947,7 +3943,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3958,25 +3954,25 @@
         <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4027,31 +4023,31 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4062,7 +4058,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4073,28 +4069,28 @@
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4144,31 +4140,31 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4179,10 +4175,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>79</v>
@@ -4192,29 +4188,29 @@
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J20" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -4263,7 +4259,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4275,22 +4271,22 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>79</v>
@@ -4298,7 +4294,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4309,7 +4305,7 @@
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
@@ -4321,13 +4317,13 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4378,31 +4374,31 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4413,11 +4409,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4436,16 +4432,16 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K22" t="s" s="2">
-        <v>137</v>
-      </c>
       <c r="L22" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4483,19 +4479,19 @@
         <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AB22" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AB22" t="s" s="2">
+      <c r="AC22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4507,7 +4503,7 @@
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>79</v>
@@ -4519,7 +4515,7 @@
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4530,7 +4526,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4541,31 +4537,31 @@
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H23" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I23" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4575,7 +4571,7 @@
         <v>79</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>79</v>
@@ -4590,55 +4586,55 @@
         <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="X23" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="X23" t="s" s="2">
+      <c r="Y23" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4649,7 +4645,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4657,34 +4653,34 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F24" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J24" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -4694,29 +4690,29 @@
         <v>79</v>
       </c>
       <c r="R24" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="X24" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="S24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="X24" t="s" s="2">
+      <c r="Y24" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4733,31 +4729,31 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="AM24" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -4768,7 +4764,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4779,31 +4775,31 @@
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -4816,67 +4812,67 @@
         <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="T25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE25" t="s" s="2">
+      <c r="AF25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -4887,7 +4883,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4898,28 +4894,28 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4933,67 +4929,67 @@
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="T26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE26" t="s" s="2">
+      <c r="AF26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -5004,7 +5000,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5015,25 +5011,25 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J27" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5084,31 +5080,31 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5119,7 +5115,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5130,28 +5126,28 @@
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J28" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5201,31 +5197,31 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5236,11 +5232,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5256,20 +5252,20 @@
         <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5318,7 +5314,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5330,19 +5326,19 @@
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AK29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5353,11 +5349,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5373,19 +5369,19 @@
         <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5435,7 +5431,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5447,19 +5443,19 @@
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AK30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5470,7 +5466,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5478,34 +5474,34 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H31" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="I31" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5530,58 +5526,58 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="Z31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
+      <c r="AK31" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -5589,7 +5585,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5612,19 +5608,19 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5649,14 +5645,14 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>263</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5673,7 +5669,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5685,7 +5681,7 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>79</v>
@@ -5697,10 +5693,10 @@
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -5708,42 +5704,42 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F33" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5768,66 +5764,66 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="X33" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="X33" t="s" s="2">
+      <c r="Y33" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="Y33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
+      <c r="AK33" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>280</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5838,31 +5834,31 @@
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J34" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -5911,34 +5907,34 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AK34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>79</v>
@@ -5946,7 +5942,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5966,19 +5962,19 @@
         <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6028,7 +6024,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6040,7 +6036,7 @@
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>79</v>
@@ -6049,13 +6045,13 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
@@ -6063,42 +6059,42 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J36" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6147,34 +6143,34 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AK36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
@@ -6182,42 +6178,42 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J37" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6266,34 +6262,34 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AK37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6301,7 +6297,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6312,28 +6308,28 @@
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J38" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6383,19 +6379,19 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>79</v>
@@ -6404,13 +6400,13 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6418,7 +6414,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6438,20 +6434,20 @@
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6500,7 +6496,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6512,22 +6508,22 @@
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AK39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
@@ -6535,7 +6531,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6546,31 +6542,31 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J40" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6619,42 +6615,42 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AI40" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO40" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>346</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6665,7 +6661,7 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>79</v>
@@ -6677,19 +6673,19 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -6714,55 +6710,55 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="Y41" t="s" s="2">
+      <c r="Z41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH41" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH41" t="s" s="2">
+      <c r="AI41" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6773,11 +6769,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6796,19 +6792,19 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -6833,14 +6829,14 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6857,7 +6853,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6869,30 +6865,30 @@
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO42" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>367</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6915,19 +6911,19 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -6976,7 +6972,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6988,7 +6984,7 @@
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
@@ -6997,10 +6993,10 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7011,7 +7007,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7022,7 +7018,7 @@
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7034,16 +7030,16 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7069,66 +7065,66 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="Y44" t="s" s="2">
+      <c r="Z44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO44" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>385</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7139,7 +7135,7 @@
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -7151,19 +7147,19 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7188,55 +7184,55 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="Y45" t="s" s="2">
+      <c r="Z45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7247,7 +7243,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7258,7 +7254,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7270,16 +7266,16 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7329,42 +7325,42 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO46" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>403</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7375,7 +7371,7 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7387,16 +7383,16 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7446,42 +7442,42 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>412</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7504,19 +7500,19 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7565,7 +7561,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7577,19 +7573,19 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AJ48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -7600,7 +7596,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7611,7 +7607,7 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7623,13 +7619,13 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7680,31 +7676,31 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7715,11 +7711,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7738,16 +7734,16 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K50" t="s" s="2">
-        <v>137</v>
-      </c>
       <c r="L50" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7797,7 +7793,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7809,7 +7805,7 @@
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>79</v>
@@ -7821,7 +7817,7 @@
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -7832,11 +7828,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7849,25 +7845,25 @@
         <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>427</v>
-      </c>
       <c r="M51" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -7916,7 +7912,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7928,7 +7924,7 @@
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>79</v>
@@ -7940,7 +7936,7 @@
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -7951,7 +7947,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7962,7 +7958,7 @@
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>79</v>
@@ -7974,13 +7970,13 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8031,31 +8027,31 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH52" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="AI52" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -8066,7 +8062,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8077,7 +8073,7 @@
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>79</v>
@@ -8089,13 +8085,13 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8146,31 +8142,31 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH53" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="AI53" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>434</v>
-      </c>
       <c r="AM53" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8181,7 +8177,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8192,7 +8188,7 @@
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>79</v>
@@ -8204,19 +8200,19 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8241,55 +8237,55 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="Y54" t="s" s="2">
+      <c r="Z54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="Z54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="AL54" t="s" s="2">
-        <v>448</v>
-      </c>
       <c r="AM54" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8300,7 +8296,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8323,19 +8319,19 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8360,14 +8356,14 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="X55" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="Y55" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="Y55" t="s" s="2">
-        <v>455</v>
-      </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8384,7 +8380,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8396,19 +8392,19 @@
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="AL55" t="s" s="2">
-        <v>448</v>
-      </c>
       <c r="AM55" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8419,7 +8415,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8430,7 +8426,7 @@
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>79</v>
@@ -8442,17 +8438,17 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8501,19 +8497,19 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>79</v>
@@ -8525,7 +8521,7 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8536,7 +8532,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8547,7 +8543,7 @@
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>79</v>
@@ -8559,13 +8555,13 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8616,19 +8612,19 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>79</v>
@@ -8637,10 +8633,10 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8651,7 +8647,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8671,19 +8667,19 @@
         <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8733,7 +8729,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8745,7 +8741,7 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
@@ -8754,10 +8750,10 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8768,7 +8764,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8788,19 +8784,19 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8850,7 +8846,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8862,7 +8858,7 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>79</v>
@@ -8871,10 +8867,10 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8885,7 +8881,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8905,22 +8901,22 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -8969,7 +8965,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8981,7 +8977,7 @@
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
@@ -8990,10 +8986,10 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9004,7 +9000,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9015,7 +9011,7 @@
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -9027,13 +9023,13 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9084,31 +9080,31 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9119,11 +9115,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9142,16 +9138,16 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K62" t="s" s="2">
-        <v>137</v>
-      </c>
       <c r="L62" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9201,7 +9197,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9213,7 +9209,7 @@
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
@@ -9225,7 +9221,7 @@
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9236,11 +9232,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9253,25 +9249,25 @@
         <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>427</v>
-      </c>
       <c r="M63" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9320,7 +9316,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9332,7 +9328,7 @@
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
@@ -9344,7 +9340,7 @@
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9355,7 +9351,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9363,34 +9359,34 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I64" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F64" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J64" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="M64" t="s" s="2">
-        <v>492</v>
-      </c>
       <c r="N64" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9415,14 +9411,14 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="X64" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="X64" t="s" s="2">
+      <c r="Y64" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="Y64" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9439,34 +9435,34 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>79</v>
@@ -9474,7 +9470,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9485,31 +9481,31 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I65" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J65" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>496</v>
-      </c>
       <c r="N65" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9558,42 +9554,42 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO65" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>346</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9604,7 +9600,7 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9616,19 +9612,19 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="M66" t="s" s="2">
-        <v>501</v>
-      </c>
       <c r="N66" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9653,55 +9649,55 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X66" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="Y66" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="Y66" t="s" s="2">
+      <c r="Z66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH66" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="Z66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH66" t="s" s="2">
+      <c r="AI66" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9712,11 +9708,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9735,19 +9731,19 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9772,14 +9768,14 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X67" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="Y67" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="Y67" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
       </c>
@@ -9796,7 +9792,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9808,30 +9804,30 @@
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AM67" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AM67" t="s" s="2">
+      <c r="AN67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO67" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>367</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9857,16 +9853,16 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="L68" t="s" s="2">
-        <v>505</v>
-      </c>
       <c r="M68" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -9915,7 +9911,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9927,7 +9923,7 @@
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>79</v>
@@ -9936,10 +9932,10 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
